--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rose\Desktop\Research\2020_DLSW\Json\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5F928-7994-4DED-AE2F-44653580C9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9C7D40-35AB-4B05-A646-9E45EB22416E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full-Data schema" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">All_Statistics!$A$2:$AE$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Project_Classes!$A$1:$D$194</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_Classification_Steps!$A$1:$O$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7835" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7796" uniqueCount="797">
   <si>
     <t>User/Project</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2733,9 +2734,6 @@
     <t>Compiler</t>
   </si>
   <si>
-    <t>Dev. Env.</t>
-  </si>
-  <si>
     <t>Engine</t>
   </si>
   <si>
@@ -2760,126 +2758,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PhotoPrism</t>
-  </si>
-  <si>
-    <t>CVAT</t>
-  </si>
-  <si>
-    <t>OctoBot</t>
-  </si>
-  <si>
-    <t>SQLFlow</t>
-  </si>
-  <si>
-    <t>DeepForge</t>
-  </si>
-  <si>
-    <t>ONNX Runtime</t>
-  </si>
-  <si>
-    <t>ray</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>PaddlePaddle</t>
-  </si>
-  <si>
-    <t>Deeplearning4J</t>
-  </si>
-  <si>
-    <t>BentoML</t>
-  </si>
-  <si>
-    <t>Horovod</t>
-  </si>
-  <si>
-    <t>ncnn</t>
-  </si>
-  <si>
-    <t>Haystack</t>
-  </si>
-  <si>
-    <t>Tensorflow.NET</t>
-  </si>
-  <si>
-    <t>PyTorch Lightning</t>
-  </si>
-  <si>
-    <t>OpenCV</t>
-  </si>
-  <si>
-    <t>Tensorflow Addons</t>
-  </si>
-  <si>
-    <t>PYRO</t>
-  </si>
-  <si>
-    <t>Tensorflow.js</t>
-  </si>
-  <si>
-    <t>Open3D</t>
-  </si>
-  <si>
-    <t>TorchBearer</t>
-  </si>
-  <si>
-    <t>oneDNN</t>
-  </si>
-  <si>
-    <t>Ignite</t>
-  </si>
-  <si>
-    <t>DGL</t>
-  </si>
-  <si>
-    <t>Syft</t>
-  </si>
-  <si>
-    <t>AllenNLP</t>
-  </si>
-  <si>
-    <t>Kubeflow</t>
-  </si>
-  <si>
-    <t>OpenPAI</t>
-  </si>
-  <si>
-    <t>Turi Create</t>
-  </si>
-  <si>
-    <t>garage</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>MONAI</t>
-  </si>
-  <si>
-    <t>TensorPack</t>
-  </si>
-  <si>
-    <t>GluonTS</t>
-  </si>
-  <si>
-    <t>TorchIO</t>
-  </si>
-  <si>
-    <t>Fairseq</t>
-  </si>
-  <si>
-    <t>OpenNMT-tf</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>Standard Format</t>
-  </si>
-  <si>
     <t>#Projects</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2938,6 +2816,18 @@
   <si>
     <t>#Bugs with TF</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Entity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Else</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Else</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3023,7 +2913,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3125,6 +3015,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3132,7 +3086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3180,7 +3134,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3214,6 +3167,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3729,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADEB127-3859-4919-9DCB-3F77F312C0C2}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3877,21 +3866,21 @@
       <c r="D20" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
@@ -3927,11 +3916,11 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="4" t="s">
         <v>749</v>
       </c>
@@ -3949,9 +3938,9 @@
       <c r="F29" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F30" s="4" t="s">
@@ -3965,13 +3954,13 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="4" t="s">
         <v>756</v>
       </c>
@@ -4166,11 +4155,11 @@
       <c r="D17" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D18" s="4" t="s">
@@ -4194,11 +4183,11 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="4" t="s">
         <v>749</v>
       </c>
@@ -4216,9 +4205,9 @@
       <c r="F23" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
@@ -4232,13 +4221,13 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="4" t="s">
         <v>756</v>
       </c>
@@ -4276,43 +4265,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F719C0-79E5-4275-A6F1-9D479463C38C}">
-  <dimension ref="A2:L195"/>
+  <dimension ref="A2:N195"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>769</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>672</v>
@@ -4335,455 +4326,578 @@
       <c r="L2" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
-        <v>790</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="30" t="str">
+        <f>VLOOKUP(B3,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>BentoML</v>
+      </c>
+      <c r="D3" s="29">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="29">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="29">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="29">
         <v>49</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="31">
         <v>3.0204081632653001</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="31">
         <v>9.1632653061224492</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="31">
         <v>4.0408163265306101</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="31">
         <v>6.3061224489795897</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="31">
         <v>42.020408163265301</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="M3" s="30" t="str">
+        <f>G3&amp;" ("&amp;F3&amp;")"</f>
+        <v>49 (25)</v>
+      </c>
+      <c r="N3" s="32" t="str">
+        <f>ROUND(J3,1)&amp;" / "&amp;ROUND(K3,1)&amp;" / "&amp;ROUND(L3,1)</f>
+        <v>4 / 6.3 / 42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <f>COUNTA(C3:C12)</f>
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
-        <v>789</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="35" t="str">
+        <f>VLOOKUP(B4,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Deeplearning4J</v>
+      </c>
+      <c r="D4" s="34">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="34">
+        <v>27</v>
+      </c>
+      <c r="G4" s="34">
+        <v>51</v>
+      </c>
+      <c r="H4" s="36">
+        <v>4.7450980392156801</v>
+      </c>
+      <c r="I4" s="36">
+        <v>80.6666666666666</v>
+      </c>
+      <c r="J4" s="36">
+        <v>11.7254901960784</v>
+      </c>
+      <c r="K4" s="36">
+        <v>18.294117647058801</v>
+      </c>
+      <c r="L4" s="36">
+        <v>106.843137254901</v>
+      </c>
+      <c r="M4" s="35" t="str">
+        <f t="shared" ref="M4:M41" si="0">G4&amp;" ("&amp;F4&amp;")"</f>
+        <v>51 (27)</v>
+      </c>
+      <c r="N4" s="37" t="str">
+        <f t="shared" ref="N4:N41" si="1">ROUND(J4,1)&amp;" / "&amp;ROUND(K4,1)&amp;" / "&amp;ROUND(L4,1)</f>
+        <v>11.7 / 18.3 / 106.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="35" t="str">
+        <f>VLOOKUP(B5,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Haystack</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34">
+        <v>15</v>
+      </c>
+      <c r="G5" s="34">
+        <v>36</v>
+      </c>
+      <c r="H5" s="36">
+        <v>4.05555555555555</v>
+      </c>
+      <c r="I5" s="36">
+        <v>10.8333333333333</v>
+      </c>
+      <c r="J5" s="36">
+        <v>2.6666666666666599</v>
+      </c>
+      <c r="K5" s="36">
+        <v>4.1944444444444402</v>
+      </c>
+      <c r="L5" s="36">
+        <v>36.5833333333333</v>
+      </c>
+      <c r="M5" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>36 (15)</v>
+      </c>
+      <c r="N5" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.7 / 4.2 / 36.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="35" t="str">
+        <f>VLOOKUP(B6,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Horovod</v>
+      </c>
+      <c r="D6" s="34">
+        <v>2</v>
+      </c>
+      <c r="E6" s="34">
+        <v>4</v>
+      </c>
+      <c r="F6" s="34">
+        <v>30</v>
+      </c>
+      <c r="G6" s="34">
+        <v>48</v>
+      </c>
+      <c r="H6" s="36">
+        <v>4.5833333333333304</v>
+      </c>
+      <c r="I6" s="36">
+        <v>13.2708333333333</v>
+      </c>
+      <c r="J6" s="36">
+        <v>2.8958333333333299</v>
+      </c>
+      <c r="K6" s="36">
+        <v>5.5208333333333304</v>
+      </c>
+      <c r="L6" s="36">
+        <v>55.5625</v>
+      </c>
+      <c r="M6" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>48 (30)</v>
+      </c>
+      <c r="N6" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.9 / 5.5 / 55.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="35" t="str">
+        <f>VLOOKUP(B7,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>mxnet</v>
+      </c>
+      <c r="D7" s="34">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34">
+        <v>6</v>
+      </c>
+      <c r="F7" s="34">
+        <v>168</v>
+      </c>
+      <c r="G7" s="34">
+        <v>252</v>
+      </c>
+      <c r="H7" s="36">
+        <v>4.7777777777777697</v>
+      </c>
+      <c r="I7" s="36">
+        <v>79.468253968253904</v>
+      </c>
+      <c r="J7" s="36">
+        <v>4.0396825396825298</v>
+      </c>
+      <c r="K7" s="36">
+        <v>6.6468253968253901</v>
+      </c>
+      <c r="L7" s="36">
+        <v>55.904761904761898</v>
+      </c>
+      <c r="M7" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>252 (168)</v>
+      </c>
+      <c r="N7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>4 / 6.6 / 55.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="35" t="str">
+        <f>VLOOKUP(B8,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>ncnn</v>
+      </c>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
+      <c r="E8" s="34">
+        <v>4</v>
+      </c>
+      <c r="F8" s="34">
+        <v>9</v>
+      </c>
+      <c r="G8" s="34">
+        <v>46</v>
+      </c>
+      <c r="H8" s="36">
+        <v>2.2826086956521698</v>
+      </c>
+      <c r="I8" s="36">
+        <v>18.543478260869499</v>
+      </c>
+      <c r="J8" s="36">
+        <v>3.02173913043478</v>
+      </c>
+      <c r="K8" s="36">
+        <v>3.8043478260869499</v>
+      </c>
+      <c r="L8" s="36">
+        <v>59.869565217391298</v>
+      </c>
+      <c r="M8" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>46 (9)</v>
+      </c>
+      <c r="N8" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3 / 3.8 / 59.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="35" t="str">
+        <f>VLOOKUP(B9,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>PaddlePaddle</v>
+      </c>
+      <c r="D9" s="34">
+        <v>4</v>
+      </c>
+      <c r="E9" s="34">
+        <v>4</v>
+      </c>
+      <c r="F9" s="34">
+        <v>21</v>
+      </c>
+      <c r="G9" s="34">
+        <v>60</v>
+      </c>
+      <c r="H9" s="36">
+        <v>2.36666666666666</v>
+      </c>
+      <c r="I9" s="36">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="J9" s="36">
+        <v>3.18333333333333</v>
+      </c>
+      <c r="K9" s="36">
+        <v>5.11666666666666</v>
+      </c>
+      <c r="L9" s="36">
+        <v>40.366666666666603</v>
+      </c>
+      <c r="M9" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>60 (21)</v>
+      </c>
+      <c r="N9" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3.2 / 5.1 / 40.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" s="35" t="str">
+        <f>VLOOKUP(B10,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>ray</v>
+      </c>
+      <c r="D10" s="34">
+        <v>6</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3</v>
+      </c>
+      <c r="F10" s="34">
+        <v>239</v>
+      </c>
+      <c r="G10" s="34">
+        <v>370</v>
+      </c>
+      <c r="H10" s="36">
+        <v>3.7027027027027</v>
+      </c>
+      <c r="I10" s="36">
+        <v>31.527027027027</v>
+      </c>
+      <c r="J10" s="36">
+        <v>3.8324324324324301</v>
+      </c>
+      <c r="K10" s="36">
+        <v>7.2756756756756698</v>
+      </c>
+      <c r="L10" s="36">
+        <v>60.937837837837797</v>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>370 (239)</v>
+      </c>
+      <c r="N10" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3.8 / 7.3 / 60.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" s="35" t="str">
+        <f>VLOOKUP(B11,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Tensorflow</v>
+      </c>
+      <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>51</v>
-      </c>
-      <c r="H4" s="16">
-        <v>4.7450980392156801</v>
-      </c>
-      <c r="I4" s="16">
-        <v>80.6666666666666</v>
-      </c>
-      <c r="J4" s="16">
-        <v>11.7254901960784</v>
-      </c>
-      <c r="K4" s="16">
-        <v>18.294117647058801</v>
-      </c>
-      <c r="L4" s="16">
-        <v>106.843137254901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" t="s">
-        <v>793</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E11" s="34">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34">
+        <v>173</v>
+      </c>
+      <c r="G11" s="34">
+        <v>306</v>
+      </c>
+      <c r="H11" s="36">
+        <v>7.05555555555555</v>
+      </c>
+      <c r="I11" s="36">
+        <v>64.382352941176407</v>
+      </c>
+      <c r="J11" s="36">
+        <v>2.55555555555555</v>
+      </c>
+      <c r="K11" s="36">
+        <v>4.0751633986928102</v>
+      </c>
+      <c r="L11" s="36">
+        <v>40.6666666666666</v>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>306 (173)</v>
+      </c>
+      <c r="N11" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.6 / 4.1 / 40.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" s="40" t="str">
+        <f>VLOOKUP(B12,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Tensorflow.NET</v>
+      </c>
+      <c r="D12" s="39">
+        <v>3</v>
+      </c>
+      <c r="E12" s="39">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F12" s="39">
+        <v>2</v>
+      </c>
+      <c r="G12" s="39">
         <v>36</v>
       </c>
-      <c r="H5" s="16">
-        <v>4.05555555555555</v>
-      </c>
-      <c r="I5" s="16">
-        <v>10.8333333333333</v>
-      </c>
-      <c r="J5" s="16">
-        <v>2.6666666666666599</v>
-      </c>
-      <c r="K5" s="16">
-        <v>4.1944444444444402</v>
-      </c>
-      <c r="L5" s="16">
-        <v>36.5833333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" t="s">
-        <v>791</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="H12" s="41">
+        <v>1.3611111111111101</v>
+      </c>
+      <c r="I12" s="41">
+        <v>4.3611111111111098</v>
+      </c>
+      <c r="J12" s="41">
+        <v>5.5277777777777697</v>
+      </c>
+      <c r="K12" s="41">
+        <v>8.4166666666666607</v>
+      </c>
+      <c r="L12" s="41">
+        <v>41.8611111111111</v>
+      </c>
+      <c r="M12" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>36 (2)</v>
+      </c>
+      <c r="N12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>5.5 / 8.4 / 41.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="30" t="str">
+        <f>VLOOKUP(B13,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Kubeflow</v>
+      </c>
+      <c r="D13" s="29">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E13" s="29">
+        <v>4</v>
+      </c>
+      <c r="F13" s="29">
+        <v>29</v>
+      </c>
+      <c r="G13" s="29">
+        <v>81</v>
+      </c>
+      <c r="H13" s="31">
+        <v>6.0123456790123404</v>
+      </c>
+      <c r="I13" s="31">
+        <v>39.382716049382701</v>
+      </c>
+      <c r="J13" s="31">
+        <v>2.81481481481481</v>
+      </c>
+      <c r="K13" s="31">
+        <v>2.9135802469135799</v>
+      </c>
+      <c r="L13" s="31">
+        <v>41.493827160493801</v>
+      </c>
+      <c r="M13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>81 (29)</v>
+      </c>
+      <c r="N13" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2.8 / 2.9 / 41.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="B14" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="40" t="str">
+        <f>VLOOKUP(B14,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>OpenPAI</v>
+      </c>
+      <c r="D14" s="39">
+        <v>6</v>
+      </c>
+      <c r="E14" s="39">
+        <v>5</v>
+      </c>
+      <c r="F14" s="39">
+        <v>8</v>
+      </c>
+      <c r="G14" s="39">
+        <v>45</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="I14" s="41">
         <v>48</v>
       </c>
-      <c r="H6" s="16">
-        <v>4.5833333333333304</v>
-      </c>
-      <c r="I6" s="16">
-        <v>13.2708333333333</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2.8958333333333299</v>
-      </c>
-      <c r="K6" s="16">
-        <v>5.5208333333333304</v>
-      </c>
-      <c r="L6" s="16">
-        <v>55.5625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C7" t="s">
-        <v>683</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>168</v>
-      </c>
-      <c r="G7" s="1">
-        <v>252</v>
-      </c>
-      <c r="H7" s="16">
-        <v>4.7777777777777697</v>
-      </c>
-      <c r="I7" s="16">
-        <v>79.468253968253904</v>
-      </c>
-      <c r="J7" s="16">
-        <v>4.0396825396825298</v>
-      </c>
-      <c r="K7" s="16">
-        <v>6.6468253968253901</v>
-      </c>
-      <c r="L7" s="16">
-        <v>55.904761904761898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" t="s">
-        <v>792</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>46</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2.2826086956521698</v>
-      </c>
-      <c r="I8" s="16">
-        <v>18.543478260869499</v>
-      </c>
-      <c r="J8" s="16">
-        <v>3.02173913043478</v>
-      </c>
-      <c r="K8" s="16">
-        <v>3.8043478260869499</v>
-      </c>
-      <c r="L8" s="16">
-        <v>59.869565217391298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" t="s">
-        <v>788</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>60</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2.36666666666666</v>
-      </c>
-      <c r="I9" s="16">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="J9" s="16">
-        <v>3.18333333333333</v>
-      </c>
-      <c r="K9" s="16">
-        <v>5.11666666666666</v>
-      </c>
-      <c r="L9" s="16">
-        <v>40.366666666666603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C10" t="s">
-        <v>786</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>239</v>
-      </c>
-      <c r="G10" s="1">
-        <v>370</v>
-      </c>
-      <c r="H10" s="16">
-        <v>3.7027027027027</v>
-      </c>
-      <c r="I10" s="16">
-        <v>31.527027027027</v>
-      </c>
-      <c r="J10" s="16">
-        <v>3.8324324324324301</v>
-      </c>
-      <c r="K10" s="16">
-        <v>7.2756756756756698</v>
-      </c>
-      <c r="L10" s="16">
-        <v>60.937837837837797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C11" t="s">
-        <v>787</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>173</v>
-      </c>
-      <c r="G11" s="1">
-        <v>306</v>
-      </c>
-      <c r="H11" s="16">
-        <v>7.05555555555555</v>
-      </c>
-      <c r="I11" s="16">
-        <v>64.382352941176407</v>
-      </c>
-      <c r="J11" s="16">
-        <v>2.55555555555555</v>
-      </c>
-      <c r="K11" s="16">
-        <v>4.0751633986928102</v>
-      </c>
-      <c r="L11" s="16">
-        <v>40.6666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C12" t="s">
-        <v>794</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>36</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1.3611111111111101</v>
-      </c>
-      <c r="I12" s="16">
-        <v>4.3611111111111098</v>
-      </c>
-      <c r="J12" s="16">
-        <v>5.5277777777777697</v>
-      </c>
-      <c r="K12" s="16">
-        <v>8.4166666666666607</v>
-      </c>
-      <c r="L12" s="16">
-        <v>41.8611111111111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>775</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" t="s">
-        <v>807</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1">
-        <v>81</v>
-      </c>
-      <c r="H13" s="16">
-        <v>6.0123456790123404</v>
-      </c>
-      <c r="I13" s="16">
-        <v>39.382716049382701</v>
-      </c>
-      <c r="J13" s="16">
-        <v>2.81481481481481</v>
-      </c>
-      <c r="K13" s="16">
-        <v>2.9135802469135799</v>
-      </c>
-      <c r="L13" s="16">
-        <v>41.493827160493801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" t="s">
-        <v>808</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1.8</v>
-      </c>
-      <c r="I14" s="16">
-        <v>48</v>
-      </c>
-      <c r="J14" s="16">
+      <c r="J14" s="41">
         <v>2.86666666666666</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="41">
         <v>2.24444444444444</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="41">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>45 (8)</v>
+      </c>
+      <c r="N14" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>2.9 / 2.2 / 33.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C15" t="s">
-        <v>785</v>
+      <c r="C15" t="str">
+        <f>VLOOKUP(B15,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>ONNX Runtime</v>
       </c>
       <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
         <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7</v>
       </c>
       <c r="F15" s="1">
         <v>23</v>
@@ -4806,944 +4920,1204 @@
       <c r="L15" s="16">
         <v>72.649122807017505</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>57 (23)</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>3.3 / 6.9 / 72.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="C16" t="s">
-        <v>783</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="45" t="str">
+        <f>VLOOKUP(B16,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>SQLFlow</v>
+      </c>
+      <c r="D16" s="44">
+        <v>4</v>
+      </c>
+      <c r="E16" s="44">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F16" s="44">
         <v>18</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="44">
         <v>48</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="46">
         <v>1.1875</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="46">
         <v>16.9583333333333</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="46">
         <v>2.3333333333333299</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="46">
         <v>3.0416666666666599</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="46">
         <v>32.8125</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>776</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="M16" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>48 (18)</v>
+      </c>
+      <c r="N16" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>2.3 / 3 / 32.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C17" t="s">
-        <v>816</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="30" t="str">
+        <f>VLOOKUP(B17,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Fairseq</v>
+      </c>
+      <c r="D17" s="29">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="29">
         <v>17</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="29">
         <v>35</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="31">
         <v>1.6571428571428499</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="31">
         <v>18.9428571428571</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="31">
         <v>2.6857142857142802</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="31">
         <v>3.77142857142857</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="31">
         <v>21.257142857142799</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="M17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>35 (17)</v>
+      </c>
+      <c r="N17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2.7 / 3.8 / 21.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
         <f>COUNTA(C17:C25)</f>
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C18" t="s">
-        <v>810</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="35" t="str">
+        <f>VLOOKUP(B18,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>garage</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="34">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="34">
+        <v>11</v>
+      </c>
+      <c r="G18" s="34">
+        <v>69</v>
+      </c>
+      <c r="H18" s="36">
+        <v>2.36231884057971</v>
+      </c>
+      <c r="I18" s="36">
+        <v>29.478260869565201</v>
+      </c>
+      <c r="J18" s="36">
+        <v>6.8260869565217304</v>
+      </c>
+      <c r="K18" s="36">
+        <v>10.9565217391304</v>
+      </c>
+      <c r="L18" s="36">
+        <v>81.6666666666666</v>
+      </c>
+      <c r="M18" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>69 (11)</v>
+      </c>
+      <c r="N18" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>6.8 / 11 / 81.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="35" t="str">
+        <f>VLOOKUP(B19,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>GluonTS</v>
+      </c>
+      <c r="D19" s="34">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="E19" s="34">
+        <v>3</v>
+      </c>
+      <c r="F19" s="34">
+        <v>29</v>
+      </c>
+      <c r="G19" s="34">
+        <v>41</v>
+      </c>
+      <c r="H19" s="36">
+        <v>2.9512195121951201</v>
+      </c>
+      <c r="I19" s="36">
+        <v>17.829268292682901</v>
+      </c>
+      <c r="J19" s="36">
+        <v>3.2926829268292601</v>
+      </c>
+      <c r="K19" s="36">
+        <v>3.3902439024390199</v>
+      </c>
+      <c r="L19" s="36">
+        <v>31.292682926829201</v>
+      </c>
+      <c r="M19" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>41 (29)</v>
+      </c>
+      <c r="N19" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3.3 / 3.4 / 31.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="35" t="str">
+        <f>VLOOKUP(B20,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>MONAI</v>
+      </c>
+      <c r="D20" s="34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34">
         <v>11</v>
       </c>
-      <c r="G18" s="1">
-        <v>69</v>
-      </c>
-      <c r="H18" s="16">
-        <v>2.36231884057971</v>
-      </c>
-      <c r="I18" s="16">
-        <v>29.478260869565201</v>
-      </c>
-      <c r="J18" s="16">
-        <v>6.8260869565217304</v>
-      </c>
-      <c r="K18" s="16">
-        <v>10.9565217391304</v>
-      </c>
-      <c r="L18" s="16">
-        <v>81.6666666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>814</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="G20" s="34">
+        <v>49</v>
+      </c>
+      <c r="H20" s="36">
+        <v>2.0612244897959102</v>
+      </c>
+      <c r="I20" s="36">
+        <v>3.77551020408163</v>
+      </c>
+      <c r="J20" s="36">
+        <v>4.1428571428571397</v>
+      </c>
+      <c r="K20" s="36">
+        <v>7.4693877551020398</v>
+      </c>
+      <c r="L20" s="36">
+        <v>39.918367346938702</v>
+      </c>
+      <c r="M20" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>49 (11)</v>
+      </c>
+      <c r="N20" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>4.1 / 7.5 / 39.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="35" t="str">
+        <f>VLOOKUP(B21,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>NNI</v>
+      </c>
+      <c r="D21" s="34">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34">
+        <v>17</v>
+      </c>
+      <c r="G21" s="34">
+        <v>49</v>
+      </c>
+      <c r="H21" s="36">
+        <v>3.0204081632653001</v>
+      </c>
+      <c r="I21" s="36">
+        <v>27.816326530612201</v>
+      </c>
+      <c r="J21" s="36">
+        <v>2.5510204081632599</v>
+      </c>
+      <c r="K21" s="36">
+        <v>2.83673469387755</v>
+      </c>
+      <c r="L21" s="36">
+        <v>25.204081632653001</v>
+      </c>
+      <c r="M21" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>49 (17)</v>
+      </c>
+      <c r="N21" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.6 / 2.8 / 25.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="35" t="str">
+        <f>VLOOKUP(B22,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>OpenNMT-tf</v>
+      </c>
+      <c r="D22" s="34">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1">
-        <v>41</v>
-      </c>
-      <c r="H19" s="16">
-        <v>2.9512195121951201</v>
-      </c>
-      <c r="I19" s="16">
-        <v>17.829268292682901</v>
-      </c>
-      <c r="J19" s="16">
-        <v>3.2926829268292601</v>
-      </c>
-      <c r="K19" s="16">
-        <v>3.3902439024390199</v>
-      </c>
-      <c r="L19" s="16">
-        <v>31.292682926829201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" t="s">
-        <v>812</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="E22" s="34">
+        <v>2</v>
+      </c>
+      <c r="F22" s="34">
+        <v>12</v>
+      </c>
+      <c r="G22" s="34">
+        <v>33</v>
+      </c>
+      <c r="H22" s="36">
+        <v>2.96969696969696</v>
+      </c>
+      <c r="I22" s="36">
+        <v>5.7878787878787801</v>
+      </c>
+      <c r="J22" s="36">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="K22" s="36">
+        <v>2.24242424242424</v>
+      </c>
+      <c r="L22" s="36">
+        <v>12.5757575757575</v>
+      </c>
+      <c r="M22" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>33 (12)</v>
+      </c>
+      <c r="N22" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.1 / 2.2 / 12.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C23" s="35" t="str">
+        <f>VLOOKUP(B23,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>TensorPack</v>
+      </c>
+      <c r="D23" s="34">
+        <v>1</v>
+      </c>
+      <c r="E23" s="34">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F23" s="34">
+        <v>18</v>
+      </c>
+      <c r="G23" s="34">
+        <v>48</v>
+      </c>
+      <c r="H23" s="36">
+        <v>1.9583333333333299</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="J23" s="36">
+        <v>2.1666666666666599</v>
+      </c>
+      <c r="K23" s="36">
+        <v>2.2708333333333299</v>
+      </c>
+      <c r="L23" s="36">
+        <v>10.0208333333333</v>
+      </c>
+      <c r="M23" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>48 (18)</v>
+      </c>
+      <c r="N23" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.2 / 2.3 / 10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="C24" s="35" t="str">
+        <f>VLOOKUP(B24,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>TorchIO</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34">
         <v>3</v>
       </c>
-      <c r="F20" s="1">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1">
-        <v>49</v>
-      </c>
-      <c r="H20" s="16">
-        <v>2.0612244897959102</v>
-      </c>
-      <c r="I20" s="16">
-        <v>3.77551020408163</v>
-      </c>
-      <c r="J20" s="16">
-        <v>4.1428571428571397</v>
-      </c>
-      <c r="K20" s="16">
-        <v>7.4693877551020398</v>
-      </c>
-      <c r="L20" s="16">
-        <v>39.918367346938702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" t="s">
-        <v>811</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1">
-        <v>49</v>
-      </c>
-      <c r="H21" s="16">
-        <v>3.0204081632653001</v>
-      </c>
-      <c r="I21" s="16">
-        <v>27.816326530612201</v>
-      </c>
-      <c r="J21" s="16">
-        <v>2.5510204081632599</v>
-      </c>
-      <c r="K21" s="16">
-        <v>2.83673469387755</v>
-      </c>
-      <c r="L21" s="16">
-        <v>25.204081632653001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C22" t="s">
-        <v>817</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="G24" s="34">
+        <v>37</v>
+      </c>
+      <c r="H24" s="36">
+        <v>2.35135135135135</v>
+      </c>
+      <c r="I24" s="36">
+        <v>4.5135135135135096</v>
+      </c>
+      <c r="J24" s="36">
+        <v>3.0810810810810798</v>
+      </c>
+      <c r="K24" s="36">
+        <v>4.6486486486486402</v>
+      </c>
+      <c r="L24" s="36">
+        <v>23.729729729729701</v>
+      </c>
+      <c r="M24" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>37 (3)</v>
+      </c>
+      <c r="N24" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3.1 / 4.6 / 23.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="C25" s="40" t="str">
+        <f>VLOOKUP(B25,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Turi Create</v>
+      </c>
+      <c r="D25" s="39">
+        <v>4</v>
+      </c>
+      <c r="E25" s="39">
+        <v>6</v>
+      </c>
+      <c r="F25" s="39">
+        <v>89</v>
+      </c>
+      <c r="G25" s="39">
+        <v>195</v>
+      </c>
+      <c r="H25" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="I25" s="41">
+        <v>73.435897435897402</v>
+      </c>
+      <c r="J25" s="41">
+        <v>6.7948717948717903</v>
+      </c>
+      <c r="K25" s="41">
+        <v>71.3794871794871</v>
+      </c>
+      <c r="L25" s="41">
+        <v>340.851282051282</v>
+      </c>
+      <c r="M25" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>195 (89)</v>
+      </c>
+      <c r="N25" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>6.8 / 71.4 / 340.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="30" t="str">
+        <f>VLOOKUP(B26,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>AllenNLP</v>
+      </c>
+      <c r="D26" s="29">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1">
-        <v>33</v>
-      </c>
-      <c r="H22" s="16">
-        <v>2.96969696969696</v>
-      </c>
-      <c r="I22" s="16">
-        <v>5.7878787878787801</v>
-      </c>
-      <c r="J22" s="16">
-        <v>2.0909090909090899</v>
-      </c>
-      <c r="K22" s="16">
-        <v>2.24242424242424</v>
-      </c>
-      <c r="L22" s="16">
-        <v>12.5757575757575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C23" t="s">
-        <v>813</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>18</v>
-      </c>
-      <c r="G23" s="1">
-        <v>48</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1.9583333333333299</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="J23" s="16">
-        <v>2.1666666666666599</v>
-      </c>
-      <c r="K23" s="16">
-        <v>2.2708333333333299</v>
-      </c>
-      <c r="L23" s="16">
-        <v>10.0208333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C24" t="s">
-        <v>815</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>37</v>
-      </c>
-      <c r="H24" s="16">
-        <v>2.35135135135135</v>
-      </c>
-      <c r="I24" s="16">
-        <v>4.5135135135135096</v>
-      </c>
-      <c r="J24" s="16">
-        <v>3.0810810810810798</v>
-      </c>
-      <c r="K24" s="16">
-        <v>4.6486486486486402</v>
-      </c>
-      <c r="L24" s="16">
-        <v>23.729729729729701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C25" t="s">
-        <v>809</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>89</v>
-      </c>
-      <c r="G25" s="1">
-        <v>195</v>
-      </c>
-      <c r="H25" s="16">
-        <v>2.6</v>
-      </c>
-      <c r="I25" s="16">
-        <v>73.435897435897402</v>
-      </c>
-      <c r="J25" s="16">
-        <v>6.7948717948717903</v>
-      </c>
-      <c r="K25" s="16">
-        <v>71.3794871794871</v>
-      </c>
-      <c r="L25" s="16">
-        <v>340.851282051282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>774</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>806</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="E26" s="29">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="F26" s="29">
         <v>9</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="29">
         <v>31</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="31">
         <v>3.3548387096774102</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="31">
         <v>24.193548387096701</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="31">
         <v>3.7741935483870899</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="31">
         <v>3.7741935483870899</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="31">
         <v>33.5483870967741</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="M26" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>31 (9)</v>
+      </c>
+      <c r="N26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>3.8 / 3.8 / 33.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
         <f>COUNTA(C26:C37)</f>
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C27" t="s">
-        <v>804</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="35" t="str">
+        <f>VLOOKUP(B27,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>DGL</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+      <c r="E27" s="34">
         <v>5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="34">
+        <v>14</v>
+      </c>
+      <c r="G27" s="34">
+        <v>35</v>
+      </c>
+      <c r="H27" s="36">
+        <v>3.3714285714285701</v>
+      </c>
+      <c r="I27" s="36">
+        <v>15.371428571428501</v>
+      </c>
+      <c r="J27" s="36">
+        <v>2.5142857142857098</v>
+      </c>
+      <c r="K27" s="36">
+        <v>4.6285714285714201</v>
+      </c>
+      <c r="L27" s="36">
+        <v>28.714285714285701</v>
+      </c>
+      <c r="M27" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>35 (14)</v>
+      </c>
+      <c r="N27" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.5 / 4.6 / 28.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="35" t="str">
+        <f>VLOOKUP(B28,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Ignite</v>
+      </c>
+      <c r="D28" s="34">
+        <v>1</v>
+      </c>
+      <c r="E28" s="34">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1">
-        <v>35</v>
-      </c>
-      <c r="H27" s="16">
-        <v>3.3714285714285701</v>
-      </c>
-      <c r="I27" s="16">
-        <v>15.371428571428501</v>
-      </c>
-      <c r="J27" s="16">
-        <v>2.5142857142857098</v>
-      </c>
-      <c r="K27" s="16">
-        <v>4.6285714285714201</v>
-      </c>
-      <c r="L27" s="16">
-        <v>28.714285714285701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" t="s">
-        <v>803</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="F28" s="34">
+        <v>21</v>
+      </c>
+      <c r="G28" s="34">
+        <v>40</v>
+      </c>
+      <c r="H28" s="36">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="I28" s="36">
+        <v>12.225</v>
+      </c>
+      <c r="J28" s="36">
+        <v>4.05</v>
+      </c>
+      <c r="K28" s="36">
+        <v>10.975</v>
+      </c>
+      <c r="L28" s="36">
+        <v>56.174999999999997</v>
+      </c>
+      <c r="M28" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>40 (21)</v>
+      </c>
+      <c r="N28" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>4.1 / 11 / 56.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29" s="35" t="str">
+        <f>VLOOKUP(B29,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>oneDNN</v>
+      </c>
+      <c r="D29" s="34">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="34">
+        <v>8</v>
+      </c>
+      <c r="F29" s="34">
+        <v>22</v>
+      </c>
+      <c r="G29" s="34">
+        <v>42</v>
+      </c>
+      <c r="H29" s="36">
+        <v>3.7857142857142798</v>
+      </c>
+      <c r="I29" s="36">
+        <v>15.523809523809501</v>
+      </c>
+      <c r="J29" s="36">
+        <v>4</v>
+      </c>
+      <c r="K29" s="36">
+        <v>21.047619047619001</v>
+      </c>
+      <c r="L29" s="36">
+        <v>49.238095238095198</v>
+      </c>
+      <c r="M29" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>42 (22)</v>
+      </c>
+      <c r="N29" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>4 / 21 / 49.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" s="35" t="str">
+        <f>VLOOKUP(B30,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Open3D</v>
+      </c>
+      <c r="D30" s="34">
+        <v>4</v>
+      </c>
+      <c r="E30" s="34">
+        <v>3</v>
+      </c>
+      <c r="F30" s="34">
+        <v>21</v>
+      </c>
+      <c r="G30" s="34">
+        <v>45</v>
+      </c>
+      <c r="H30" s="36">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="I30" s="36">
+        <v>54.955555555555499</v>
+      </c>
+      <c r="J30" s="36">
+        <v>5.48888888888888</v>
+      </c>
+      <c r="K30" s="36">
+        <v>7.17777777777777</v>
+      </c>
+      <c r="L30" s="36">
+        <v>61.266666666666602</v>
+      </c>
+      <c r="M30" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>45 (21)</v>
+      </c>
+      <c r="N30" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>5.5 / 7.2 / 61.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="35" t="str">
+        <f>VLOOKUP(B31,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>OpenCV</v>
+      </c>
+      <c r="D31" s="34">
+        <v>5</v>
+      </c>
+      <c r="E31" s="34">
+        <v>3</v>
+      </c>
+      <c r="F31" s="34">
+        <v>85</v>
+      </c>
+      <c r="G31" s="34">
+        <v>157</v>
+      </c>
+      <c r="H31" s="36">
+        <v>3.2611464968152801</v>
+      </c>
+      <c r="I31" s="36">
+        <v>171.84076433121001</v>
+      </c>
+      <c r="J31" s="36">
+        <v>2.2929936305732399</v>
+      </c>
+      <c r="K31" s="36">
+        <v>4.8343949044585903</v>
+      </c>
+      <c r="L31" s="36">
+        <v>49.8152866242038</v>
+      </c>
+      <c r="M31" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>157 (85)</v>
+      </c>
+      <c r="N31" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.3 / 4.8 / 49.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="35" t="str">
+        <f>VLOOKUP(B32,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>PYRO</v>
+      </c>
+      <c r="D32" s="34">
+        <v>2</v>
+      </c>
+      <c r="E32" s="34">
+        <v>2</v>
+      </c>
+      <c r="F32" s="34">
+        <v>19</v>
+      </c>
+      <c r="G32" s="34">
+        <v>56</v>
+      </c>
+      <c r="H32" s="36">
+        <v>2.7678571428571401</v>
+      </c>
+      <c r="I32" s="36">
+        <v>18.178571428571399</v>
+      </c>
+      <c r="J32" s="36">
+        <v>2.9464285714285698</v>
+      </c>
+      <c r="K32" s="36">
+        <v>5.1428571428571397</v>
+      </c>
+      <c r="L32" s="36">
+        <v>34.071428571428498</v>
+      </c>
+      <c r="M32" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>56 (19)</v>
+      </c>
+      <c r="N32" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.9 / 5.1 / 34.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="C33" s="35" t="str">
+        <f>VLOOKUP(B33,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>PyTorch Lightning</v>
+      </c>
+      <c r="D33" s="34">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1">
-        <v>40</v>
-      </c>
-      <c r="H28" s="16">
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="I28" s="16">
-        <v>12.225</v>
-      </c>
-      <c r="J28" s="16">
-        <v>4.05</v>
-      </c>
-      <c r="K28" s="16">
-        <v>10.975</v>
-      </c>
-      <c r="L28" s="16">
-        <v>56.174999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C29" t="s">
-        <v>802</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="E33" s="34">
         <v>3</v>
       </c>
-      <c r="F29" s="1">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1">
-        <v>42</v>
-      </c>
-      <c r="H29" s="16">
-        <v>3.7857142857142798</v>
-      </c>
-      <c r="I29" s="16">
-        <v>15.523809523809501</v>
-      </c>
-      <c r="J29" s="16">
+      <c r="F33" s="34">
+        <v>133</v>
+      </c>
+      <c r="G33" s="34">
+        <v>240</v>
+      </c>
+      <c r="H33" s="36">
+        <v>5.3624999999999998</v>
+      </c>
+      <c r="I33" s="36">
+        <v>17.720833333333299</v>
+      </c>
+      <c r="J33" s="36">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="K33" s="36">
+        <v>7.3333333333333304</v>
+      </c>
+      <c r="L33" s="36">
+        <v>45.787500000000001</v>
+      </c>
+      <c r="M33" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>240 (133)</v>
+      </c>
+      <c r="N33" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3.7 / 7.3 / 45.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="35" t="str">
+        <f>VLOOKUP(B34,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Syft</v>
+      </c>
+      <c r="D34" s="34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="34">
+        <v>17</v>
+      </c>
+      <c r="G34" s="34">
+        <v>34</v>
+      </c>
+      <c r="H34" s="36">
+        <v>3.02941176470588</v>
+      </c>
+      <c r="I34" s="36">
+        <v>34</v>
+      </c>
+      <c r="J34" s="36">
+        <v>3.7647058823529398</v>
+      </c>
+      <c r="K34" s="36">
+        <v>4.2647058823529402</v>
+      </c>
+      <c r="L34" s="36">
+        <v>56.941176470588204</v>
+      </c>
+      <c r="M34" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>34 (17)</v>
+      </c>
+      <c r="N34" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3.8 / 4.3 / 56.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="35" t="str">
+        <f>VLOOKUP(B35,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Tensorflow Addons</v>
+      </c>
+      <c r="D35" s="34">
+        <v>2</v>
+      </c>
+      <c r="E35" s="34">
+        <v>3</v>
+      </c>
+      <c r="F35" s="34">
+        <v>31</v>
+      </c>
+      <c r="G35" s="34">
+        <v>60</v>
+      </c>
+      <c r="H35" s="36">
+        <v>3.43333333333333</v>
+      </c>
+      <c r="I35" s="36">
+        <v>16.3666666666666</v>
+      </c>
+      <c r="J35" s="36">
+        <v>2.8833333333333302</v>
+      </c>
+      <c r="K35" s="36">
+        <v>3.55</v>
+      </c>
+      <c r="L35" s="36">
+        <v>28.066666666666599</v>
+      </c>
+      <c r="M35" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>60 (31)</v>
+      </c>
+      <c r="N35" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>2.9 / 3.6 / 28.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="C36" s="35" t="str">
+        <f>VLOOKUP(B36,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>Tensorflow.js</v>
+      </c>
+      <c r="D36" s="34">
+        <v>7</v>
+      </c>
+      <c r="E36" s="34">
+        <v>3</v>
+      </c>
+      <c r="F36" s="34">
+        <v>25</v>
+      </c>
+      <c r="G36" s="34">
+        <v>55</v>
+      </c>
+      <c r="H36" s="36">
+        <v>6.7272727272727204</v>
+      </c>
+      <c r="I36" s="36">
+        <v>24.254545454545401</v>
+      </c>
+      <c r="J36" s="36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K36" s="36">
+        <v>4.7636363636363601</v>
+      </c>
+      <c r="L36" s="36">
+        <v>90.018181818181802</v>
+      </c>
+      <c r="M36" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>55 (25)</v>
+      </c>
+      <c r="N36" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>4.6 / 4.8 / 90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C37" s="40" t="str">
+        <f>VLOOKUP(B37,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>TorchBearer</v>
+      </c>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
+      <c r="E37" s="39">
+        <v>2</v>
+      </c>
+      <c r="F37" s="39">
+        <v>1</v>
+      </c>
+      <c r="G37" s="39">
+        <v>44</v>
+      </c>
+      <c r="H37" s="41">
+        <v>0.56818181818181801</v>
+      </c>
+      <c r="I37" s="41">
+        <v>6.1363636363636296</v>
+      </c>
+      <c r="J37" s="41">
         <v>4</v>
       </c>
-      <c r="K29" s="16">
-        <v>21.047619047619001</v>
-      </c>
-      <c r="L29" s="16">
-        <v>49.238095238095198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C30" t="s">
-        <v>800</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="K37" s="41">
+        <v>8.9772727272727195</v>
+      </c>
+      <c r="L37" s="41">
+        <v>83.704545454545396</v>
+      </c>
+      <c r="M37" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>44 (1)</v>
+      </c>
+      <c r="N37" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>4 / 9 / 83.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="30" t="str">
+        <f>VLOOKUP(B38,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>CVAT</v>
+      </c>
+      <c r="D38" s="29">
         <v>3</v>
       </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>21</v>
-      </c>
-      <c r="G30" s="1">
-        <v>45</v>
-      </c>
-      <c r="H30" s="16">
-        <v>4.3333333333333304</v>
-      </c>
-      <c r="I30" s="16">
-        <v>54.955555555555499</v>
-      </c>
-      <c r="J30" s="16">
-        <v>5.48888888888888</v>
-      </c>
-      <c r="K30" s="16">
-        <v>7.17777777777777</v>
-      </c>
-      <c r="L30" s="16">
-        <v>61.266666666666602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E38" s="29">
+        <v>2</v>
+      </c>
+      <c r="F38" s="29">
+        <v>12</v>
+      </c>
+      <c r="G38" s="29">
+        <v>48</v>
+      </c>
+      <c r="H38" s="31">
+        <v>3.1875</v>
+      </c>
+      <c r="I38" s="31">
+        <v>30.6875</v>
+      </c>
+      <c r="J38" s="31">
+        <v>4.0208333333333304</v>
+      </c>
+      <c r="K38" s="31">
+        <v>4.1666666666666599</v>
+      </c>
+      <c r="L38" s="31">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="M38" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>48 (12)</v>
+      </c>
+      <c r="N38" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4 / 4.2 / 48.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>3</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="35" t="str">
+        <f>VLOOKUP(B39,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>OctoBot</v>
+      </c>
+      <c r="D39" s="34">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34">
+        <v>0</v>
+      </c>
+      <c r="F39" s="34">
+        <v>2</v>
+      </c>
+      <c r="G39" s="34">
+        <v>34</v>
+      </c>
+      <c r="H39" s="36">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="I39" s="36">
+        <v>23.323529411764699</v>
+      </c>
+      <c r="J39" s="36">
+        <v>2.9705882352941102</v>
+      </c>
+      <c r="K39" s="36">
+        <v>4.4705882352941098</v>
+      </c>
+      <c r="L39" s="36">
+        <v>24.411764705882302</v>
+      </c>
+      <c r="M39" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>34 (2)</v>
+      </c>
+      <c r="N39" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>3 / 4.5 / 24.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="40" t="str">
+        <f>VLOOKUP(B40,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>PhotoPrism</v>
+      </c>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1</v>
+      </c>
+      <c r="F40" s="39">
+        <v>13</v>
+      </c>
+      <c r="G40" s="39">
+        <v>49</v>
+      </c>
+      <c r="H40" s="41">
+        <v>6.4897959183673404</v>
+      </c>
+      <c r="I40" s="41">
+        <v>28.020408163265301</v>
+      </c>
+      <c r="J40" s="41">
+        <v>3.59183673469387</v>
+      </c>
+      <c r="K40" s="41">
+        <v>5.0204081632652997</v>
+      </c>
+      <c r="L40" s="41">
+        <v>36.081632653061199</v>
+      </c>
+      <c r="M40" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>49 (13)</v>
+      </c>
+      <c r="N40" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>3.6 / 5 / 36.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>796</v>
       </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
-        <v>85</v>
-      </c>
-      <c r="G31" s="1">
-        <v>157</v>
-      </c>
-      <c r="H31" s="16">
-        <v>3.2611464968152801</v>
-      </c>
-      <c r="I31" s="16">
-        <v>171.84076433121001</v>
-      </c>
-      <c r="J31" s="16">
-        <v>2.2929936305732399</v>
-      </c>
-      <c r="K31" s="16">
-        <v>4.8343949044585903</v>
-      </c>
-      <c r="L31" s="16">
-        <v>49.8152866242038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C32" t="s">
-        <v>798</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B41" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="45" t="str">
+        <f>VLOOKUP(B41,Project_Classes!$A$1:$D$194,2,FALSE)</f>
+        <v>DeepForge</v>
+      </c>
+      <c r="D41" s="44">
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F32" s="1">
-        <v>19</v>
-      </c>
-      <c r="G32" s="1">
-        <v>56</v>
-      </c>
-      <c r="H32" s="16">
-        <v>2.7678571428571401</v>
-      </c>
-      <c r="I32" s="16">
-        <v>18.178571428571399</v>
-      </c>
-      <c r="J32" s="16">
-        <v>2.9464285714285698</v>
-      </c>
-      <c r="K32" s="16">
-        <v>5.1428571428571397</v>
-      </c>
-      <c r="L32" s="16">
-        <v>34.071428571428498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C33" t="s">
-        <v>795</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>133</v>
-      </c>
-      <c r="G33" s="1">
-        <v>240</v>
-      </c>
-      <c r="H33" s="16">
-        <v>5.3624999999999998</v>
-      </c>
-      <c r="I33" s="16">
-        <v>17.720833333333299</v>
-      </c>
-      <c r="J33" s="16">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="K33" s="16">
-        <v>7.3333333333333304</v>
-      </c>
-      <c r="L33" s="16">
-        <v>45.787500000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C34" t="s">
-        <v>805</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1">
-        <v>34</v>
-      </c>
-      <c r="H34" s="16">
-        <v>3.02941176470588</v>
-      </c>
-      <c r="I34" s="16">
-        <v>34</v>
-      </c>
-      <c r="J34" s="16">
-        <v>3.7647058823529398</v>
-      </c>
-      <c r="K34" s="16">
-        <v>4.2647058823529402</v>
-      </c>
-      <c r="L34" s="16">
-        <v>56.941176470588204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C35" t="s">
-        <v>797</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1">
-        <v>60</v>
-      </c>
-      <c r="H35" s="16">
-        <v>3.43333333333333</v>
-      </c>
-      <c r="I35" s="16">
-        <v>16.3666666666666</v>
-      </c>
-      <c r="J35" s="16">
-        <v>2.8833333333333302</v>
-      </c>
-      <c r="K35" s="16">
-        <v>3.55</v>
-      </c>
-      <c r="L35" s="16">
-        <v>28.066666666666599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C36" t="s">
-        <v>799</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1">
-        <v>55</v>
-      </c>
-      <c r="H36" s="16">
-        <v>6.7272727272727204</v>
-      </c>
-      <c r="I36" s="16">
-        <v>24.254545454545401</v>
-      </c>
-      <c r="J36" s="16">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K36" s="16">
-        <v>4.7636363636363601</v>
-      </c>
-      <c r="L36" s="16">
-        <v>90.018181818181802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C37" t="s">
-        <v>801</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>44</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0.56818181818181801</v>
-      </c>
-      <c r="I37" s="16">
-        <v>6.1363636363636296</v>
-      </c>
-      <c r="J37" s="16">
-        <v>4</v>
-      </c>
-      <c r="K37" s="16">
-        <v>8.9772727272727195</v>
-      </c>
-      <c r="L37" s="16">
-        <v>83.704545454545396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>770</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>781</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1">
-        <v>48</v>
-      </c>
-      <c r="H38" s="16">
-        <v>3.1875</v>
-      </c>
-      <c r="I38" s="16">
-        <v>30.6875</v>
-      </c>
-      <c r="J38" s="16">
-        <v>4.0208333333333304</v>
-      </c>
-      <c r="K38" s="16">
-        <v>4.1666666666666599</v>
-      </c>
-      <c r="L38" s="16">
-        <v>48.3333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C39" t="s">
-        <v>782</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>34</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0.26470588235294101</v>
-      </c>
-      <c r="I39" s="16">
-        <v>23.323529411764699</v>
-      </c>
-      <c r="J39" s="16">
-        <v>2.9705882352941102</v>
-      </c>
-      <c r="K39" s="16">
-        <v>4.4705882352941098</v>
-      </c>
-      <c r="L39" s="16">
-        <v>24.411764705882302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>472</v>
-      </c>
-      <c r="C40" t="s">
-        <v>780</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>13</v>
-      </c>
-      <c r="G40">
-        <v>49</v>
-      </c>
-      <c r="H40" s="17">
-        <v>6.4897959183673404</v>
-      </c>
-      <c r="I40" s="17">
-        <v>28.020408163265301</v>
-      </c>
-      <c r="J40" s="17">
-        <v>3.59183673469387</v>
-      </c>
-      <c r="K40" s="17">
-        <v>5.0204081632652997</v>
-      </c>
-      <c r="L40" s="17">
-        <v>36.081632653061199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>772</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" t="s">
-        <v>784</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="F41" s="44">
         <v>30</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="44">
         <v>312</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="46">
         <v>0.20833333333333301</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="46">
         <v>3.84615384615384</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="46">
         <v>1.7083333333333299</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="46">
         <v>5.3525641025641004</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="46">
         <v>47.855769230769198</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>312 (30)</v>
+      </c>
+      <c r="N41" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>1.7 / 5.4 / 47.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5756,57 +6130,59 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>823</v>
+        <v>782</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>828</v>
+        <v>787</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>820</v>
+        <v>779</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>821</v>
+        <v>780</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>822</v>
+        <v>781</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>824</v>
+        <v>783</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>825</v>
+        <v>784</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>826</v>
+        <v>785</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>827</v>
+        <v>786</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>829</v>
+        <v>788</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>790</v>
+      </c>
+      <c r="L44" s="34"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>709</v>
       </c>
@@ -5846,15 +6222,23 @@
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A45)</f>
         <v>4.9398489760591637</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A45)</f>
         <v>35.815612357694192</v>
       </c>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="35" t="str">
+        <f>E45&amp;" ("&amp;F45&amp;")"</f>
+        <v>1466 (805)</v>
+      </c>
+      <c r="M45" s="35" t="str">
+        <f>ROUND(I45,1)&amp;" / "&amp;ROUND(J45,1)&amp;" / "&amp;ROUND(K45,1)</f>
+        <v>3.1 / 4.9 / 35.8</v>
+      </c>
+      <c r="N45" s="35"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B46" s="1">
         <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A46)</f>
@@ -5892,15 +6276,23 @@
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A46)</f>
         <v>11.84384885147365</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A46)</f>
         <v>46.806249703028129</v>
       </c>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="35" t="str">
+        <f t="shared" ref="L46:L55" si="2">E46&amp;" ("&amp;F46&amp;")"</f>
+        <v>275 (94)</v>
+      </c>
+      <c r="M46" s="35" t="str">
+        <f t="shared" ref="M46:M55" si="3">ROUND(I46,1)&amp;" / "&amp;ROUND(J46,1)&amp;" / "&amp;ROUND(K46,1)</f>
+        <v>11.8 / 11.8 / 46.8</v>
+      </c>
+      <c r="N46" s="35"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B47" s="1">
         <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A47)</f>
@@ -5938,13 +6330,21 @@
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A47)</f>
         <v>13.949122807017542</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A47)</f>
         <v>102.81315789473683</v>
       </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>87 (38)</v>
+      </c>
+      <c r="M47" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>6.2 / 13.9 / 102.8</v>
+      </c>
+      <c r="N47" s="35"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>771</v>
       </c>
@@ -5984,15 +6384,23 @@
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A48)</f>
         <v>4.0424603174603133</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A48)</f>
         <v>45.947023809523806</v>
       </c>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>60 (28)</v>
+      </c>
+      <c r="M48" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>2.3 / 4 / 45.9</v>
+      </c>
+      <c r="N48" s="35"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B49" s="1">
         <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A49)</f>
@@ -6030,15 +6438,23 @@
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A49)</f>
         <v>5.2837677454485155</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A49)</f>
         <v>69.551521098060945</v>
       </c>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L49" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>895 (351)</v>
+      </c>
+      <c r="M49" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>3.5 / 5.3 / 69.6</v>
+      </c>
+      <c r="N49" s="35"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B50" s="1">
         <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A50)</f>
@@ -6076,256 +6492,204 @@
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A50)</f>
         <v>10.903158065590251</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A50)</f>
         <v>52.037542180445207</v>
       </c>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>1169 (538)</v>
+      </c>
+      <c r="M50" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>5.9 / 10.9 / 52</v>
+      </c>
+      <c r="N50" s="35"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>818</v>
+        <v>770</v>
       </c>
       <c r="B51" s="1">
         <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A51)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C51" s="16">
         <f>AVERAGEIFS(All_Statistics!D:D,All_Statistics!$A:$A,'Summary(Paper)'!A51)</f>
-        <v>1.8333333333333333</v>
+        <v>1.8823529411764706</v>
       </c>
       <c r="D51" s="16">
         <f>AVERAGEIFS(All_Statistics!C:C,All_Statistics!$A:$A,'Summary(Paper)'!A51)</f>
-        <v>2.5</v>
+        <v>1.2352941176470589</v>
       </c>
       <c r="E51" s="1">
         <f>SUMIFS(All_Statistics!F:F,All_Statistics!$A:$A,'Summary(Paper)'!A51)</f>
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="F51" s="1">
         <f>SUMIFS(All_Statistics!E:E,All_Statistics!$A:$A,'Summary(Paper)'!A51)</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G51" s="16">
         <f>AVERAGEIFS(All_Statistics!G:G,All_Statistics!$A:$A,'Summary(Paper)'!$A51)</f>
-        <v>3.4023809523809518</v>
+        <v>3.2310935419005098</v>
       </c>
       <c r="H51" s="16">
         <f>AVERAGEIFS(All_Statistics!H:H,All_Statistics!$A:$A,'Summary(Paper)'!$A51)</f>
-        <v>102.12142857142857</v>
+        <v>41.0228226584751</v>
       </c>
       <c r="I51" s="16">
         <f>AVERAGEIFS(All_Statistics!I:I,All_Statistics!$A:$A,'Summary(Paper)'!$A51)</f>
-        <v>2.7095238095238083</v>
+        <v>2.7627632110022109</v>
       </c>
       <c r="J51" s="16">
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A51)</f>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="K51" s="16">
+        <v>3.6800726172822031</v>
+      </c>
+      <c r="K51" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A51)</f>
-        <v>97.940476190476161</v>
-      </c>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>133.36685245673752</v>
+      </c>
+      <c r="L51" s="35" t="str">
+        <f>E51&amp;" ("&amp;F51&amp;")"</f>
+        <v>228 (61)</v>
+      </c>
+      <c r="M51" s="35" t="str">
+        <f>ROUND(I51,1)&amp;" / "&amp;ROUND(J51,1)&amp;" / "&amp;ROUND(K51,1)</f>
+        <v>2.8 / 3.7 / 133.4</v>
+      </c>
+      <c r="N51" s="35"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="B52" s="1">
         <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A52)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C52" s="16">
         <f>AVERAGEIFS(All_Statistics!D:D,All_Statistics!$A:$A,'Summary(Paper)'!A52)</f>
-        <v>2</v>
+        <v>1.7692307692307692</v>
       </c>
       <c r="D52" s="16">
         <f>AVERAGEIFS(All_Statistics!C:C,All_Statistics!$A:$A,'Summary(Paper)'!A52)</f>
-        <v>5.5</v>
+        <v>3.3076923076923075</v>
       </c>
       <c r="E52" s="1">
         <f>SUMIFS(All_Statistics!F:F,All_Statistics!$A:$A,'Summary(Paper)'!A52)</f>
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="F52" s="1">
         <f>SUMIFS(All_Statistics!E:E,All_Statistics!$A:$A,'Summary(Paper)'!A52)</f>
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G52" s="16">
         <f>AVERAGEIFS(All_Statistics!G:G,All_Statistics!$A:$A,'Summary(Paper)'!$A52)</f>
-        <v>2.838888888888885</v>
+        <v>2.6384920634920621</v>
       </c>
       <c r="H52" s="16">
         <f>AVERAGEIFS(All_Statistics!H:H,All_Statistics!$A:$A,'Summary(Paper)'!$A52)</f>
-        <v>40.383333333333297</v>
+        <v>59.963074105381793</v>
       </c>
       <c r="I52" s="16">
         <f>AVERAGEIFS(All_Statistics!I:I,All_Statistics!$A:$A,'Summary(Paper)'!$A52)</f>
-        <v>2.15</v>
+        <v>2.3198717948717937</v>
       </c>
       <c r="J52" s="16">
         <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A52)</f>
-        <v>2.2222222222222201</v>
-      </c>
-      <c r="K52" s="16">
+        <v>2.6354841739457111</v>
+      </c>
+      <c r="K52" s="36">
         <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A52)</f>
-        <v>49.605555555555547</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65.332067718606154</v>
+      </c>
+      <c r="L52" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>397 (54)</v>
+      </c>
+      <c r="M52" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>2.3 / 2.6 / 65.3</v>
+      </c>
+      <c r="N52" s="35"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="B53" s="1">
-        <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A53)</f>
-        <v>17</v>
+        <f ca="1">SUM(B45:B54)</f>
+        <v>193</v>
       </c>
       <c r="C53" s="16">
-        <f>AVERAGEIFS(All_Statistics!D:D,All_Statistics!$A:$A,'Summary(Paper)'!A53)</f>
-        <v>1.8823529411764706</v>
-      </c>
-      <c r="D53" s="16">
-        <f>AVERAGEIFS(All_Statistics!C:C,All_Statistics!$A:$A,'Summary(Paper)'!A53)</f>
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="E53" s="1">
-        <f>SUMIFS(All_Statistics!F:F,All_Statistics!$A:$A,'Summary(Paper)'!A53)</f>
-        <v>228</v>
-      </c>
-      <c r="F53" s="1">
-        <f>SUMIFS(All_Statistics!E:E,All_Statistics!$A:$A,'Summary(Paper)'!A53)</f>
-        <v>61</v>
-      </c>
-      <c r="G53" s="16">
-        <f>AVERAGEIFS(All_Statistics!G:G,All_Statistics!$A:$A,'Summary(Paper)'!$A53)</f>
-        <v>3.2310935419005098</v>
-      </c>
-      <c r="H53" s="16">
-        <f>AVERAGEIFS(All_Statistics!H:H,All_Statistics!$A:$A,'Summary(Paper)'!$A53)</f>
-        <v>41.0228226584751</v>
-      </c>
-      <c r="I53" s="16">
-        <f>AVERAGEIFS(All_Statistics!I:I,All_Statistics!$A:$A,'Summary(Paper)'!$A53)</f>
-        <v>2.7627632110022109</v>
-      </c>
-      <c r="J53" s="16">
-        <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A53)</f>
-        <v>3.6800726172822031</v>
-      </c>
-      <c r="K53" s="16">
-        <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A53)</f>
-        <v>133.36685245673752</v>
-      </c>
-      <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>772</v>
-      </c>
-      <c r="B54" s="1">
-        <f>COUNTIF(All_Statistics!A:A,'Summary(Paper)'!A54)</f>
-        <v>5</v>
-      </c>
-      <c r="C54" s="16">
-        <f>AVERAGEIFS(All_Statistics!D:D,All_Statistics!$A:$A,'Summary(Paper)'!A54)</f>
-        <v>1.6</v>
-      </c>
-      <c r="D54" s="16">
-        <f>AVERAGEIFS(All_Statistics!C:C,All_Statistics!$A:$A,'Summary(Paper)'!A54)</f>
-        <v>3.4</v>
-      </c>
-      <c r="E54" s="1">
-        <f>SUMIFS(All_Statistics!F:F,All_Statistics!$A:$A,'Summary(Paper)'!A54)</f>
-        <v>349</v>
-      </c>
-      <c r="F54" s="1">
-        <f>SUMIFS(All_Statistics!E:E,All_Statistics!$A:$A,'Summary(Paper)'!A54)</f>
-        <v>38</v>
-      </c>
-      <c r="G54" s="16">
-        <f>AVERAGEIFS(All_Statistics!G:G,All_Statistics!$A:$A,'Summary(Paper)'!$A54)</f>
-        <v>1.6416666666666664</v>
-      </c>
-      <c r="H54" s="16">
-        <f>AVERAGEIFS(All_Statistics!H:H,All_Statistics!$A:$A,'Summary(Paper)'!$A54)</f>
-        <v>17.20494505494505</v>
-      </c>
-      <c r="I54" s="16">
-        <f>AVERAGEIFS(All_Statistics!I:I,All_Statistics!$A:$A,'Summary(Paper)'!$A54)</f>
-        <v>1.9202380952380937</v>
-      </c>
-      <c r="J54" s="16">
-        <f>AVERAGEIFS(All_Statistics!J:J,All_Statistics!$A:$A,'Summary(Paper)'!$A54)</f>
-        <v>3.4633699633699608</v>
-      </c>
-      <c r="K54" s="16">
-        <f>AVERAGEIFS(All_Statistics!K:K,All_Statistics!$A:$A,'Summary(Paper)'!$A54)</f>
-        <v>32.492582417582376</v>
-      </c>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>824</v>
-      </c>
-      <c r="B55" s="1">
-        <f>SUM(B45:B54)</f>
-        <v>193</v>
-      </c>
-      <c r="C55" s="16">
         <f>AVERAGE(All_Statistics!D:D)</f>
         <v>2.1968911917098444</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D53" s="16">
         <f>AVERAGE(All_Statistics!C:C)</f>
         <v>2.6683937823834198</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E53" s="1">
         <f>SUM(All_Statistics!F:F)</f>
         <v>4577</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F53" s="1">
         <f>SUM(All_Statistics!E:E)</f>
         <v>1969</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G53" s="16">
         <f>AVERAGE(All_Statistics!G:G)</f>
         <v>3.4565249065580583</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H53" s="16">
         <f>AVERAGE(All_Statistics!H:H)</f>
         <v>33.37416521982442</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I53" s="16">
         <f>AVERAGE(All_Statistics!I:I)</f>
         <v>4.6471398549096321</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J53" s="16">
         <f>AVERAGE(All_Statistics!J:J)</f>
         <v>7.3473627566336503</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K53" s="36">
         <f>AVERAGE(All_Statistics!K:K)</f>
         <v>61.959219481889797</v>
       </c>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="35" t="str">
+        <f>E53&amp;" ("&amp;F53&amp;")"</f>
+        <v>4577 (1969)</v>
+      </c>
+      <c r="M53" s="35" t="str">
+        <f>ROUND(I53,1)&amp;" / "&amp;ROUND(J53,1)&amp;" / "&amp;ROUND(K53,1)</f>
+        <v>4.6 / 7.3 / 62</v>
+      </c>
+      <c r="N53" s="35"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N55" s="35"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6335,10 +6699,12 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6351,7 +6717,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6364,7 +6730,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6377,7 +6743,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6390,7 +6756,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6403,7 +6769,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6416,7 +6782,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8133,8 +8499,9 @@
       <c r="L195" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:K54">
-    <sortCondition ref="A45:A54" customList="Framework,Platform,Engine,Compiler,Tool,Library,Dev. Eng. Application,Examples,Standard Format"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L41">
+    <sortCondition ref="A3:A41" customList="Framework,Platform,Engine,Compiler,Tool,Library,Dev. Eng. Application,Examples,Standard Format"/>
+    <sortCondition ref="C3:C41"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8145,36 +8512,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2002E-3807-480B-9878-71BE3955E0E6}">
   <dimension ref="A1:AE195"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>710</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -10201,7 +10568,7 @@
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>VLOOKUP(B23,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Dev. Env.</v>
+        <v>Else</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>141</v>
@@ -10297,7 +10664,7 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>VLOOKUP(B24,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Dev. Env.</v>
+        <v>Else</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>378</v>
@@ -10395,7 +10762,7 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>VLOOKUP(B25,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Dev. Env.</v>
+        <v>Else</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>177</v>
@@ -10493,7 +10860,7 @@
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>VLOOKUP(B26,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Dev. Env.</v>
+        <v>Else</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>660</v>
@@ -10591,7 +10958,7 @@
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>VLOOKUP(B27,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Dev. Env.</v>
+        <v>Else</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>310</v>
@@ -11175,7 +11542,7 @@
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>VLOOKUP(B33,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Examples</v>
+        <v>Else</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>125</v>
@@ -11271,7 +11638,7 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>VLOOKUP(B34,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Examples</v>
+        <v>Else</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>514</v>
@@ -11367,7 +11734,7 @@
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>VLOOKUP(B35,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Examples</v>
+        <v>Else</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
@@ -11463,7 +11830,7 @@
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>VLOOKUP(B36,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Examples</v>
+        <v>Else</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>390</v>
@@ -11559,7 +11926,7 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>VLOOKUP(B37,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Examples</v>
+        <v>Else</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>221</v>
@@ -11655,7 +12022,7 @@
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>VLOOKUP(B38,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Examples</v>
+        <v>Else</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>343</v>
@@ -22511,7 +22878,7 @@
     <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>VLOOKUP(B150,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Standard Format</v>
+        <v>Else</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>415</v>
@@ -22609,7 +22976,7 @@
     <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>VLOOKUP(B151,Project_Classes!$A$1:$D$194,3,FALSE)</f>
-        <v>Standard Format</v>
+        <v>Else</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>420</v>
@@ -26982,8 +27349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB6FAE1-0724-4A47-AE02-F6A265DBB11C}">
   <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27080,7 +27447,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>370</v>
@@ -27534,7 +27901,7 @@
         <v>142</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>795</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -27646,7 +28013,7 @@
         <v>311</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>795</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>20</v>
@@ -27884,7 +28251,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>795</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
@@ -28304,7 +28671,7 @@
         <v>379</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>145</v>
+        <v>795</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
@@ -28360,7 +28727,7 @@
         <v>126</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>27</v>
+        <v>795</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>28</v>
@@ -28388,7 +28755,7 @@
         <v>222</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>27</v>
+        <v>795</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>28</v>
@@ -28416,7 +28783,7 @@
         <v>391</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>27</v>
+        <v>795</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>28</v>
@@ -28472,7 +28839,7 @@
         <v>515</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>27</v>
+        <v>795</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>28</v>
@@ -28528,7 +28895,7 @@
         <v>344</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>27</v>
+        <v>795</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>28</v>
@@ -28696,7 +29063,7 @@
         <v>178</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>145</v>
+        <v>795</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>20</v>
@@ -28780,7 +29147,7 @@
         <v>421</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>418</v>
+        <v>795</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>20</v>
@@ -28794,7 +29161,7 @@
         <v>416</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>418</v>
+        <v>795</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>20</v>
@@ -29662,7 +30029,7 @@
         <v>661</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>145</v>
+        <v>795</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>20</v>
@@ -29744,14 +30111,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -39001,13 +39368,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="D1" s="1"/>
     </row>
